--- a/TimeFrame.xlsx
+++ b/TimeFrame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Arrays Repo</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>1. MNC Questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. MNC Questions. </t>
   </si>
 </sst>
 </file>
@@ -223,7 +232,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
@@ -232,6 +241,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -531,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3055"/>
+  <dimension ref="A1:F3055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,9 +555,10 @@
     <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +574,11 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="4">
         <v>42608</v>
       </c>
@@ -579,8 +594,11 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="4">
         <v>42609</v>
       </c>
@@ -596,8 +614,11 @@
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="4">
         <v>42610</v>
       </c>
@@ -613,8 +634,11 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="4">
         <v>42611</v>
       </c>
@@ -630,8 +654,11 @@
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="4">
         <v>42612</v>
       </c>
@@ -647,8 +674,11 @@
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="4">
         <v>42613</v>
       </c>
@@ -658,8 +688,11 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>42614</v>
       </c>
@@ -669,8 +702,11 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="4">
         <v>42615</v>
       </c>
@@ -680,8 +716,11 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="4">
         <v>42616</v>
       </c>
@@ -691,8 +730,11 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="4">
         <v>42617</v>
       </c>
@@ -702,8 +744,11 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="4">
         <v>42618</v>
       </c>
@@ -713,8 +758,11 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="4">
         <v>42619</v>
       </c>
@@ -724,8 +772,11 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="4">
         <v>42620</v>
       </c>
@@ -735,8 +786,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="4">
         <v>42621</v>
       </c>
@@ -746,8 +800,11 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="4">
         <v>42622</v>
       </c>
@@ -757,8 +814,11 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="4">
         <v>42623</v>
       </c>
@@ -768,8 +828,11 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="4">
         <v>42624</v>
       </c>
@@ -779,8 +842,11 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="4">
         <v>42625</v>
       </c>
@@ -790,8 +856,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="4">
         <v>42626</v>
       </c>
@@ -801,8 +870,11 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F20" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="4">
         <v>42627</v>
       </c>
@@ -812,8 +884,11 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="4">
         <v>42628</v>
       </c>
@@ -823,8 +898,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F22" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="4">
         <v>42629</v>
       </c>
@@ -834,8 +912,11 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F23" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="4">
         <v>42630</v>
       </c>
@@ -845,8 +926,11 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F24" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="4">
         <v>42631</v>
       </c>
@@ -856,8 +940,11 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F25" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="4">
         <v>42632</v>
       </c>
@@ -867,8 +954,11 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="4">
         <v>42633</v>
       </c>
@@ -878,8 +968,11 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F27" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="4">
         <v>42634</v>
       </c>
@@ -889,8 +982,11 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F28" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="4">
         <v>42635</v>
       </c>
@@ -900,8 +996,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F29" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="4">
         <v>42636</v>
       </c>
@@ -911,8 +1010,11 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F30" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="4">
         <v>42637</v>
       </c>
@@ -922,8 +1024,11 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F31" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="4">
         <v>42638</v>
       </c>
@@ -933,8 +1038,11 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="4">
         <v>42639</v>
       </c>
@@ -944,78 +1052,81 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickTop="1">
+      <c r="F33" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickTop="1">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
